--- a/Schedule/TECHNICAL.xlsx
+++ b/Schedule/TECHNICAL.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{66DCF1B9-8698-4E1C-AA84-32767B41AC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08BAF1A9-D7EC-47F6-AC2E-F9B5A895F6B3}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02. CSI\2022-23\7th Sem\3. Odd Sem Events\Coordinator Selections Report\Schedule\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6ED7DC-1836-425D-BC61-DAF4DAED1FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -26,15 +29,25 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
         </ext>
       </extLst>
     </bk>
@@ -44,11 +57,16 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="196">
   <si>
     <t>Name</t>
   </si>
@@ -269,15 +287,6 @@
     <t>meghanagatti6@gmail.com</t>
   </si>
   <si>
-    <t>Potnuru Hemasri</t>
-  </si>
-  <si>
-    <t>21341A4238</t>
-  </si>
-  <si>
-    <t>potnuruhemasri@gmail.com</t>
-  </si>
-  <si>
     <t>aiml</t>
   </si>
   <si>
@@ -326,15 +335,6 @@
     <t>k.sreya2003@gmail.com</t>
   </si>
   <si>
-    <t>Swarna Karri</t>
-  </si>
-  <si>
-    <t>21341A0570</t>
-  </si>
-  <si>
-    <t>swarnakarri1911@gmail.com</t>
-  </si>
-  <si>
     <t>Yeshwanth</t>
   </si>
   <si>
@@ -353,15 +353,6 @@
     <t>akramshaikssaba@gmail.com</t>
   </si>
   <si>
-    <t>Uday kiran Vadaga</t>
-  </si>
-  <si>
-    <t>21341A4255</t>
-  </si>
-  <si>
-    <t>21341A4255@gmrit.edu.in</t>
-  </si>
-  <si>
     <t>Y.Ishwarya</t>
   </si>
   <si>
@@ -398,15 +389,6 @@
     <t>chpallavi80@gmail.com</t>
   </si>
   <si>
-    <t>Gogula yogeswar rao</t>
-  </si>
-  <si>
-    <t>21341A0548</t>
-  </si>
-  <si>
-    <t>yogeswarraogogula@gmail.com</t>
-  </si>
-  <si>
     <t>KVSR.PRASANTH</t>
   </si>
   <si>
@@ -416,15 +398,6 @@
     <t>21341A0566@gmrit.edu.in</t>
   </si>
   <si>
-    <t>K P Praveen</t>
-  </si>
-  <si>
-    <t>21341A4228</t>
-  </si>
-  <si>
-    <t>pandu350230@gmail.com</t>
-  </si>
-  <si>
     <t>Y Ramya sri</t>
   </si>
   <si>
@@ -452,15 +425,6 @@
     <t>21341A4517@gmrit.edu.in</t>
   </si>
   <si>
-    <t>B Sai Girish</t>
-  </si>
-  <si>
-    <t>21341A0512</t>
-  </si>
-  <si>
-    <t>21341A0512@gmrit.edu.in</t>
-  </si>
-  <si>
     <t>Arava Ajay</t>
   </si>
   <si>
@@ -470,15 +434,6 @@
     <t>aravaajay30@gmail.com</t>
   </si>
   <si>
-    <t>Ramya Vana</t>
-  </si>
-  <si>
-    <t>21341A4257</t>
-  </si>
-  <si>
-    <t>ramyavana2004@gmail.com</t>
-  </si>
-  <si>
     <t>Tejasri</t>
   </si>
   <si>
@@ -488,27 +443,9 @@
     <t>tejasribennabatthula@gmail.com</t>
   </si>
   <si>
-    <t>K.SIVA SAI CHARAN</t>
-  </si>
-  <si>
-    <t>21341A1267</t>
-  </si>
-  <si>
-    <t>kssc306@gmail.com</t>
-  </si>
-  <si>
     <t>it</t>
   </si>
   <si>
-    <t>Deepthi</t>
-  </si>
-  <si>
-    <t>21341A0506</t>
-  </si>
-  <si>
-    <t>deepthiarugula2805@gmail.com</t>
-  </si>
-  <si>
     <t>GOVARDHAN KALIPINDI</t>
   </si>
   <si>
@@ -518,15 +455,6 @@
     <t>21341a0552@gmrit.edu.in</t>
   </si>
   <si>
-    <t>Katari sreelasya</t>
-  </si>
-  <si>
-    <t>21341A0213</t>
-  </si>
-  <si>
-    <t>Katarisreelasya25@gmail.com</t>
-  </si>
-  <si>
     <t>Immanni Venkata Chowdary</t>
   </si>
   <si>
@@ -545,15 +473,6 @@
     <t>yaminiakula2004@gmail.com</t>
   </si>
   <si>
-    <t>Jhansi beera</t>
-  </si>
-  <si>
-    <t>21341A1215</t>
-  </si>
-  <si>
-    <t>jhansibeera760@gmail.com</t>
-  </si>
-  <si>
     <t>Inumula.Indu</t>
   </si>
   <si>
@@ -581,15 +500,6 @@
     <t>supriyajagan26@gmail.com</t>
   </si>
   <si>
-    <t>Bevara Mounika</t>
-  </si>
-  <si>
-    <t>21341A1217</t>
-  </si>
-  <si>
-    <t>mounikabevara3@gmail.com</t>
-  </si>
-  <si>
     <t>Kasireddi Lahari</t>
   </si>
   <si>
@@ -653,15 +563,6 @@
     <t>skreshu2004@gmail.com</t>
   </si>
   <si>
-    <t>Khandavilli anusha</t>
-  </si>
-  <si>
-    <t>21341A1259</t>
-  </si>
-  <si>
-    <t>khandavillianusha381@gmail.com</t>
-  </si>
-  <si>
     <t>Tentu ganga bhavani</t>
   </si>
   <si>
@@ -732,24 +633,6 @@
   </si>
   <si>
     <t>yashwanthguptamaram@gmail.com</t>
-  </si>
-  <si>
-    <t>V.Prathap reddy</t>
-  </si>
-  <si>
-    <t>21341A05J3</t>
-  </si>
-  <si>
-    <t>21341A05j3@gmrit.edu.in</t>
-  </si>
-  <si>
-    <t>M HARSHAVARDHINI</t>
-  </si>
-  <si>
-    <t>21341A05A6</t>
-  </si>
-  <si>
-    <t>harshavardhinim2003@gmail.com</t>
   </si>
   <si>
     <t>SLOT</t>
@@ -882,7 +765,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -909,6 +792,65 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <fb t="e">#NAME?</fb>
+    <v>4</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1210,27 +1152,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE72775-42E9-4838-AE19-4C74D8C5AA90}">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7421875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="40.89453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.765625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.9296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.49609375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.609375" style="2"/>
-    <col min="7" max="7" width="13.046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.484375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.44921875" style="2" customWidth="1"/>
-    <col min="10" max="11" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.16015625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" style="2"/>
+    <col min="7" max="7" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1268,13 +1210,13 @@
         <v>49</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="str" cm="1">
-        <f t="array" ref="A2:A71">""&amp;_xlfn.SEQUENCE(70)</f>
-        <v>1</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="A2:A71" ca="1">""&amp;_xlfn.SEQUENCE(70)</f>
+        <v>#NAME?</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
@@ -1310,12 +1252,13 @@
         <v>26</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="str">
-        <v>2</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>19</v>
@@ -1351,12 +1294,13 @@
         <v>26</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="str">
-        <v>3</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>23</v>
@@ -1392,12 +1336,13 @@
         <v>26</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="str">
-        <v>4</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>32</v>
@@ -1433,12 +1378,13 @@
         <v>26</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="str">
-        <v>5</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>46</v>
@@ -1474,12 +1420,13 @@
         <v>26</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="str">
-        <v>6</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>50</v>
@@ -1515,12 +1462,13 @@
         <v>26</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="str">
-        <v>7</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>57</v>
@@ -1556,12 +1504,13 @@
         <v>26</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="str">
-        <v>8</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>61</v>
@@ -1597,12 +1546,13 @@
         <v>26</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="str">
-        <v>9</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>64</v>
@@ -1638,12 +1588,13 @@
         <v>26</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="str">
-        <v>10</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>70</v>
@@ -1679,24 +1630,25 @@
         <v>26</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="str">
-        <v>11</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="F12" s="4">
         <v>2</v>
@@ -1705,36 +1657,37 @@
         <v>14</v>
       </c>
       <c r="H12" s="4">
-        <v>7670873257</v>
+        <v>9346938871</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="str">
-        <v>12</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
@@ -1743,80 +1696,82 @@
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="4">
+        <v>8317566274</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="4">
-        <v>9100341470</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="str">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="H14" s="4">
-        <v>8309640843</v>
+        <v>8463954988</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="str">
-        <v>14</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -1828,39 +1783,40 @@
         <v>14</v>
       </c>
       <c r="H15" s="4">
-        <v>8074280157</v>
+        <v>8885809489</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="str">
-        <v>15</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
@@ -1869,81 +1825,83 @@
         <v>14</v>
       </c>
       <c r="H16" s="4">
-        <v>9183923277</v>
+        <v>6303348739</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="L16" s="4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="str">
-        <v>16</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="4">
+        <v>8074656418</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="4">
-        <v>2</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="4">
-        <v>8125605239</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="str">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="F18" s="4">
         <v>2</v>
       </c>
@@ -1951,7 +1909,7 @@
         <v>14</v>
       </c>
       <c r="H18" s="4">
-        <v>8919216969</v>
+        <v>7981333166</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>15</v>
@@ -1960,68 +1918,70 @@
         <v>16</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="str">
-        <v>18</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="H19" s="4">
-        <v>8790976981</v>
+        <v>7013545820</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="str">
-        <v>19</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -2030,10 +1990,10 @@
         <v>2</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H20" s="4">
-        <v>7207497581</v>
+        <v>8897786112</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>15</v>
@@ -2042,27 +2002,28 @@
         <v>16</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="str">
-        <v>20</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
@@ -2071,42 +2032,43 @@
         <v>2</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="H21" s="4">
-        <v>7981933042</v>
+        <v>9100867241</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="L21" s="4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="str">
-        <v>21</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="F22" s="4">
         <v>2</v>
@@ -2115,39 +2077,40 @@
         <v>14</v>
       </c>
       <c r="H22" s="4">
-        <v>8639890980</v>
+        <v>8125460302</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="L22" s="4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="str">
-        <v>22</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="F23" s="4">
         <v>2</v>
@@ -2156,7 +2119,7 @@
         <v>14</v>
       </c>
       <c r="H23" s="4">
-        <v>8309595203</v>
+        <v>9966284189</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>15</v>
@@ -2165,30 +2128,31 @@
         <v>16</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="str">
-        <v>23</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>201</v>
+        <v>98</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>202</v>
+        <v>99</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="F24" s="4">
         <v>2</v>
@@ -2197,77 +2161,79 @@
         <v>14</v>
       </c>
       <c r="H24" s="4">
-        <v>7093635886</v>
+        <v>9951729980</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="str">
-        <v>24</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>228</v>
+        <v>101</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>229</v>
+        <v>102</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>230</v>
+        <v>103</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="F25" s="4">
         <v>2</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="H25" s="4">
-        <v>6302338399</v>
+        <v>8125874715</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="str">
-        <v>25</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>231</v>
+        <v>104</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>232</v>
+        <v>105</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>233</v>
+        <v>106</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -2276,39 +2242,40 @@
         <v>2</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="H26" s="4">
-        <v>8985404181</v>
+        <v>6305880467</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="str">
-        <v>26</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
@@ -2317,42 +2284,43 @@
         <v>2</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H27" s="4">
-        <v>9346938871</v>
+        <v>9652040688</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>42</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="str">
-        <v>27</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="F28" s="4">
         <v>2</v>
@@ -2361,7 +2329,7 @@
         <v>14</v>
       </c>
       <c r="H28" s="4">
-        <v>8317566274</v>
+        <v>6300771447</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>15</v>
@@ -2376,62 +2344,64 @@
         <v>42</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="str">
-        <v>28</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F29" s="4">
         <v>2</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="H29" s="4">
-        <v>8463954988</v>
+        <v>8309936317</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>42</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="str">
-        <v>29</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
@@ -2443,36 +2413,37 @@
         <v>14</v>
       </c>
       <c r="H30" s="4">
-        <v>8885809489</v>
+        <v>9573815762</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>42</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="str">
-        <v>30</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
@@ -2484,177 +2455,181 @@
         <v>14</v>
       </c>
       <c r="H31" s="4">
-        <v>6303348739</v>
+        <v>8374850456</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="4">
+        <v>9492092444</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="4">
+        <v>9949601008</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="4">
+        <v>9391557254</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="4">
+        <v>9392416071</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="str">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="4">
-        <v>2</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="4">
-        <v>8074656418</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="str">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="4">
-        <v>2</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="4">
-        <v>7981333166</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="str">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="4">
-        <v>2</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H34" s="4">
-        <v>7013545820</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="str">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="4">
-        <v>2</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" s="4">
-        <v>8897786112</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>60</v>
@@ -2663,21 +2638,22 @@
         <v>42</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="str">
-        <v>35</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -2686,51 +2662,52 @@
         <v>2</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="H36" s="4">
-        <v>9100867241</v>
+        <v>9392882899</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>42</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="str">
-        <v>36</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="F37" s="4">
         <v>2</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H37" s="4">
-        <v>8125460302</v>
+        <v>7816043263</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>15</v>
@@ -2739,27 +2716,28 @@
         <v>16</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>42</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="str">
-        <v>37</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>30</v>
@@ -2771,89 +2749,91 @@
         <v>14</v>
       </c>
       <c r="H38" s="4">
-        <v>9966284189</v>
+        <v>6302751558</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>42</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="str">
-        <v>38</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" s="4">
+        <v>9133615466</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="4">
-        <v>2</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="4">
-        <v>9951729980</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="str">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="F40" s="4">
         <v>2</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H40" s="4">
-        <v>8125874715</v>
+        <v>9701825008</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>15</v>
@@ -2862,27 +2842,28 @@
         <v>16</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>42</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="str">
-        <v>40</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
@@ -2891,16 +2872,16 @@
         <v>2</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H41" s="4">
-        <v>6305880467</v>
+        <v>8919477618</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>22</v>
@@ -2909,21 +2890,22 @@
         <v>42</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="str">
-        <v>41</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
@@ -2932,42 +2914,43 @@
         <v>2</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="H42" s="4">
-        <v>9652040688</v>
+        <v>8328003242</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>42</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="str">
-        <v>42</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="F43" s="4">
         <v>2</v>
@@ -2976,7 +2959,7 @@
         <v>14</v>
       </c>
       <c r="H43" s="4">
-        <v>6300771447</v>
+        <v>8555039988</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>15</v>
@@ -2991,62 +2974,64 @@
         <v>42</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="str">
-        <v>43</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F44" s="4">
         <v>2</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H44" s="4">
-        <v>8309936317</v>
+        <v>9963172899</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>42</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="str">
-        <v>44</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
@@ -3055,84 +3040,86 @@
         <v>2</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H45" s="4">
-        <v>9573815762</v>
+        <v>9347219139</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>42</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="str">
-        <v>45</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="E46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="4">
+        <v>9390211282</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="4">
-        <v>2</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="4">
-        <v>8374850456</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="str">
-        <v>46</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="F47" s="4">
         <v>2</v>
       </c>
@@ -3140,82 +3127,84 @@
         <v>14</v>
       </c>
       <c r="H47" s="4">
-        <v>9492092444</v>
+        <v>9989215406</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="4">
+        <v>9391411341</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L47" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="str">
-        <v>47</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E48" s="4" t="s">
+      <c r="L48" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="4">
-        <v>2</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="4">
-        <v>9949601008</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="N48" s="2"/>
-    </row>
-    <row r="49" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="str">
-        <v>48</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="F49" s="4">
         <v>2</v>
       </c>
@@ -3223,40 +3212,41 @@
         <v>14</v>
       </c>
       <c r="H49" s="4">
-        <v>9391557254</v>
+        <v>9398960873</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="str">
-        <v>49</v>
+    <row r="50" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="F50" s="4">
         <v>2</v>
@@ -3265,7 +3255,7 @@
         <v>14</v>
       </c>
       <c r="H50" s="4">
-        <v>9392416071</v>
+        <v>7013215056</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>15</v>
@@ -3274,28 +3264,29 @@
         <v>22</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="str">
-        <v>50</v>
+    <row r="51" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
@@ -3304,10 +3295,10 @@
         <v>2</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H51" s="4">
-        <v>9392882899</v>
+        <v>6305329036</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>15</v>
@@ -3319,25 +3310,26 @@
         <v>17</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="str">
-        <v>51</v>
+    <row r="52" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>194</v>
+        <v>128</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
@@ -3346,10 +3338,10 @@
         <v>2</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="H52" s="4">
-        <v>7816043263</v>
+        <v>9490657424</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>15</v>
@@ -3361,797 +3353,276 @@
         <v>22</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="str">
-        <v>52</v>
+    <row r="53" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F53" s="4">
+        <v>2</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="4">
+        <v>9502031355</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F54" s="4">
+        <v>2</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="4">
+        <v>7207429750</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F55" s="4">
+        <v>2</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="4">
+        <v>9063593283</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N55" s="2"/>
+    </row>
+    <row r="56" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F53" s="4">
-        <v>2</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="4">
-        <v>6302751558</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K53" s="4" t="s">
+      <c r="E56" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" s="4">
+        <v>2</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56" s="4">
+        <v>8639836429</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L53" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="N53" s="2"/>
-    </row>
-    <row r="54" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="str">
-        <v>53</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F54" s="4">
-        <v>2</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H54" s="4">
-        <v>9133615466</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="N54" s="2"/>
-    </row>
-    <row r="55" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="str">
-        <v>54</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="4">
-        <v>2</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H55" s="4">
-        <v>9701825008</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="N55" s="2"/>
-    </row>
-    <row r="56" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="str">
-        <v>55</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="4">
-        <v>2</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H56" s="4">
-        <v>8919477618</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="K56" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="L56" s="4" t="s">
         <v>42</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="str">
-        <v>56</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="4">
-        <v>2</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H57" s="4">
-        <v>8328003242</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>236</v>
+    <row r="57" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="str">
-        <v>57</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="4">
-        <v>2</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="4">
-        <v>8555039988</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>236</v>
+    <row r="58" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="str">
-        <v>58</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="4">
-        <v>2</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H59" s="4">
-        <v>9963172899</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>236</v>
+    <row r="59" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="str">
-        <v>59</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="4">
-        <v>2</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H60" s="4">
-        <v>9347219139</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L60" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="str">
-        <v>60</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F61" s="4">
-        <v>2</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" s="4">
-        <v>9390211282</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="str">
-        <v>61</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="4">
-        <v>2</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" s="4">
-        <v>9989215406</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="str">
-        <v>62</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F63" s="4">
-        <v>2</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H63" s="4">
-        <v>9391411341</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="str">
-        <v>63</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F64" s="4">
-        <v>2</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" s="4">
-        <v>9398960873</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="str">
-        <v>64</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F65" s="4">
-        <v>2</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" s="4">
-        <v>7013215056</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="str">
-        <v>65</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="4">
-        <v>2</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H66" s="4">
-        <v>6305329036</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="str">
-        <v>66</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="4">
-        <v>2</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="4">
-        <v>9490657424</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="str">
-        <v>67</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F68" s="4">
-        <v>2</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="4">
-        <v>9502031355</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="str">
-        <v>68</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F69" s="4">
-        <v>2</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" s="4">
-        <v>7207429750</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L69" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="str">
-        <v>69</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F70" s="4">
-        <v>2</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="4">
-        <v>9063593283</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L70" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="str">
-        <v>70</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F71" s="4">
-        <v>2</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H71" s="4">
-        <v>8639836429</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L71" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>236</v>
+    <row r="60" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A64" s="8" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A65" s="8" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A70" s="7" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A71" s="6" t="e" vm="1">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
